--- a/NRE538_lab_grade.xlsx
+++ b/NRE538_lab_grade.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NRE538_lab_grade" sheetId="1" r:id="rId1"/>
     <sheet name="Quiz1" sheetId="2" r:id="rId2"/>
     <sheet name="Quiz2" sheetId="3" r:id="rId3"/>
+    <sheet name="Quiz3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="118">
   <si>
     <t>Student</t>
   </si>
@@ -351,6 +352,45 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>11.1.1</t>
+  </si>
+  <si>
+    <t>11.1.2</t>
+  </si>
+  <si>
+    <t>11.2.1</t>
+  </si>
+  <si>
+    <t>11.2.2</t>
+  </si>
+  <si>
+    <t>11.3.1</t>
+  </si>
+  <si>
+    <t>11.3.2</t>
+  </si>
+  <si>
+    <t>11.3.3</t>
+  </si>
+  <si>
+    <t>11.4.1</t>
+  </si>
+  <si>
+    <t>11.4.2</t>
+  </si>
+  <si>
+    <t>11.5.1</t>
+  </si>
+  <si>
+    <t>11.5.2</t>
+  </si>
+  <si>
+    <t>11.5.3</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -2299,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2424,31 +2464,31 @@
         <v>6</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S13" si="0">SUM(E2:R2)</f>
+        <f t="shared" ref="S2:S43" si="0">SUM(E2:R2)</f>
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>342980</v>
+        <v>370585</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2466,43 +2506,43 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>353885</v>
+        <v>378613</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -2523,19 +2563,19 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>4</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2545,36 +2585,36 @@
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>335954</v>
+        <v>367970</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2589,10 +2629,10 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -2610,31 +2650,73 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>338982</v>
+        <v>236403</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>374658</v>
+        <v>342980</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2646,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2664,49 +2746,49 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>365868</v>
+        <v>353885</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -2718,19 +2800,19 @@
         <v>4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2743,27 +2825,27 @@
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>375616</v>
+        <v>382027</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2775,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -2793,13 +2875,13 @@
         <v>4</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
@@ -2808,13 +2890,13 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>208437</v>
+        <v>335954</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -2823,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2832,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -2847,94 +2929,52 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>332765</v>
+        <v>338982</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>335935</v>
+        <v>374658</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -2946,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2961,13 +3001,13 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>3</v>
@@ -2979,34 +3019,34 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>365857</v>
+        <v>367880</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3015,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -3030,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3043,18 +3083,18 @@
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>375390</v>
+        <v>365868</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -3072,70 +3112,70 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>2</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <f>SUM(E14:R14)</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>335914</v>
+        <v>380349</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -3144,106 +3184,106 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S44" si="1">SUM(E15:R15)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>367743</v>
+        <v>71512</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>3</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>336130</v>
+        <v>375616</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -3273,28 +3313,28 @@
         <v>4</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>298780</v>
+        <v>208437</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -3309,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3327,34 +3367,34 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>5</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>374852</v>
+        <v>332765</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -3366,187 +3406,187 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>4</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>2</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>14291</v>
+        <v>373698</v>
       </c>
       <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
         <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>5</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="1"/>
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>338585</v>
+        <v>367907</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>4</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>336196</v>
+        <v>335935</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3561,46 +3601,46 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>4</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22">
         <v>2</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>5</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>372019</v>
+        <v>365857</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3609,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -3618,52 +3658,52 @@
         <v>4</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>4</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <v>5</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>372124</v>
+        <v>375390</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3672,13 +3712,13 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3</v>
@@ -3687,40 +3727,40 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>4</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>370585</v>
+        <v>335914</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -3732,10 +3772,10 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3744,37 +3784,37 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B26">
-        <v>378613</v>
+        <v>368148</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -3786,7 +3826,7 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3801,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>4</v>
@@ -3813,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -3822,19 +3862,19 @@
         <v>5</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B27">
-        <v>367970</v>
+        <v>372310</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -3849,13 +3889,13 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3879,34 +3919,34 @@
         <v>2</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B28">
-        <v>236403</v>
+        <v>340516</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>5</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3915,58 +3955,58 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>4</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>382027</v>
+        <v>367743</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3975,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -3987,40 +4027,40 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B30">
-        <v>367880</v>
+        <v>367572</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -4029,16 +4069,16 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -4047,10 +4087,10 @@
         <v>4</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -4062,28 +4102,28 @@
         <v>5</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B31">
-        <v>380349</v>
+        <v>346612</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -4095,61 +4135,61 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>71512</v>
+        <v>336130</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
         <v>5</v>
       </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -4158,43 +4198,43 @@
         <v>4</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32">
         <v>4</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B33">
-        <v>373698</v>
+        <v>376876</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
@@ -4212,16 +4252,16 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>4</v>
@@ -4236,28 +4276,28 @@
         <v>2</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33">
         <v>6</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>367907</v>
+        <v>298780</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -4269,13 +4309,13 @@
         <v>2</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -4296,28 +4336,28 @@
         <v>2</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>368148</v>
+        <v>374852</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -4326,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -4347,34 +4387,34 @@
         <v>4</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>4</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q35">
         <v>2</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B36">
-        <v>372310</v>
+        <v>373643</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -4392,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -4416,97 +4456,97 @@
         <v>2</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>6</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>340516</v>
+        <v>14291</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>5</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>3</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>4</v>
-      </c>
       <c r="S37">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>367572</v>
+        <v>338585</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4515,58 +4555,58 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>4</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P38">
         <v>2</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>346612</v>
+        <v>336196</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4575,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4587,34 +4627,34 @@
         <v>4</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>376876</v>
+        <v>379427</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -4626,22 +4666,22 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <v>4</v>
@@ -4650,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -4659,25 +4699,25 @@
         <v>2</v>
       </c>
       <c r="R40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>373643</v>
+        <v>372019</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -4692,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -4701,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>4</v>
@@ -4710,43 +4750,43 @@
         <v>2</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P41">
         <v>2</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>379427</v>
+        <v>372124</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4770,20 +4810,20 @@
         <v>2</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>2</v>
       </c>
       <c r="R42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4842,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -4893,7 +4933,7 @@
         <v>6</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S44" si="1">SUM(E44:R44)</f>
         <v>45</v>
       </c>
     </row>
@@ -5028,6 +5068,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:S43">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5038,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5145,22 +5188,22 @@
         <v>2</v>
       </c>
       <c r="P2">
-        <f>SUM(E2:O2)</f>
+        <f t="shared" ref="P2:P43" si="0">SUM(E2:O2)</f>
         <v>23.5</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>342980</v>
+        <v>370585</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -5169,19 +5212,19 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -5190,28 +5233,28 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P44" si="0">SUM(E3:O3)</f>
-        <v>31.5</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>353885</v>
+        <v>378613</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -5220,16 +5263,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5241,31 +5284,31 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>335954</v>
+        <v>367970</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5280,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -5295,7 +5338,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -5304,25 +5347,25 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>338982</v>
+        <v>236403</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -5334,10 +5377,10 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -5346,37 +5389,37 @@
         <v>3.5</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>374658</v>
+        <v>342980</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5385,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -5397,76 +5440,76 @@
         <v>3.5</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>365868</v>
+        <v>353885</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>375616</v>
+        <v>382027</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -5478,13 +5521,13 @@
         <v>14</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5496,31 +5539,31 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>208437</v>
+        <v>335954</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5538,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -5550,46 +5593,46 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>332765</v>
+        <v>338982</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -5598,31 +5641,31 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>335935</v>
+        <v>374658</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5634,112 +5677,112 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B13">
-        <v>365857</v>
+        <v>367880</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13">
         <v>2</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>375390</v>
+        <v>365868</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5751,28 +5794,28 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B15">
-        <v>335914</v>
+        <v>380349</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5781,22 +5824,22 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -5805,73 +5848,73 @@
         <v>4</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>367743</v>
+        <v>71512</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>2</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>336130</v>
+        <v>375616</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -5886,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -5895,7 +5938,7 @@
         <v>2</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -5904,46 +5947,46 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>298780</v>
+        <v>208437</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -5962,18 +6005,18 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>374852</v>
+        <v>332765</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -5985,19 +6028,19 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -6006,28 +6049,28 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>14291</v>
+        <v>373698</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -6036,13 +6079,13 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -6057,46 +6100,46 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>338585</v>
+        <v>367907</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -6111,22 +6154,22 @@
         <v>4</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>336196</v>
+        <v>335935</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -6144,16 +6187,16 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -6162,73 +6205,73 @@
         <v>4</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>372019</v>
+        <v>365857</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>14</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>372124</v>
+        <v>375390</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -6243,46 +6286,46 @@
         <v>14</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>370585</v>
+        <v>335914</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -6291,22 +6334,22 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -6319,24 +6362,24 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B26">
-        <v>378613</v>
+        <v>368148</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -6345,7 +6388,7 @@
         <v>14</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -6354,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -6363,31 +6406,31 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B27">
-        <v>367970</v>
+        <v>372310</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
       </c>
       <c r="E27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -6408,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -6417,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="O27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -6426,19 +6469,19 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B28">
-        <v>236403</v>
+        <v>340516</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -6447,16 +6490,16 @@
         <v>12</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -6472,90 +6515,90 @@
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>382027</v>
+        <v>367743</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>2</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B30">
-        <v>367880</v>
+        <v>367572</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
       </c>
       <c r="E30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -6570,22 +6613,22 @@
         <v>4</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B31">
-        <v>380349</v>
+        <v>346612</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -6597,19 +6640,19 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -6621,28 +6664,28 @@
         <v>4</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>71512</v>
+        <v>336130</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -6654,13 +6697,13 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -6672,22 +6715,22 @@
         <v>4</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B33">
-        <v>373698</v>
+        <v>376876</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
@@ -6699,70 +6742,70 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>367907</v>
+        <v>298780</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -6774,28 +6817,28 @@
         <v>4</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>368148</v>
+        <v>374852</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6804,19 +6847,19 @@
         <v>14</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -6825,22 +6868,22 @@
         <v>3.5</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B36">
-        <v>372310</v>
+        <v>373643</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -6852,10 +6895,10 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6864,7 +6907,7 @@
         <v>2</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -6876,28 +6919,28 @@
         <v>4</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>340516</v>
+        <v>14291</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -6906,16 +6949,16 @@
         <v>12</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -6924,28 +6967,28 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>367572</v>
+        <v>338585</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -6954,16 +6997,16 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -6978,25 +7021,25 @@
         <v>4</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>346612</v>
+        <v>336196</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -7011,16 +7054,16 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -7029,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>376876</v>
+        <v>379427</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -7056,22 +7099,22 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -7080,40 +7123,40 @@
         <v>3.5</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>373643</v>
+        <v>372019</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -7122,34 +7165,34 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>379427</v>
+        <v>372124</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -7158,19 +7201,19 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -7182,7 +7225,7 @@
         <v>3.5</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
@@ -7278,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P44" si="1">SUM(E44:O44)</f>
         <v>35</v>
       </c>
     </row>
@@ -7287,51 +7330,51 @@
         <v>98</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:P45" si="1">AVERAGE(E2:E43)</f>
+        <f t="shared" ref="E45:P45" si="2">AVERAGE(E2:E43)</f>
         <v>1.8452380952380953</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97619047619047616</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.476190476190476</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1190476190476191</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88095238095238093</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6190476190476191</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4404761904761907</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.333333333333332</v>
       </c>
     </row>
@@ -7344,51 +7387,4073 @@
         <v>6.6927990708478546E-2</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:P46" si="2">VAR(F2:F43)</f>
+        <f t="shared" ref="F46:P46" si="3">VAR(F2:F43)</f>
         <v>2.3809523809523767E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>4.2555168408827031</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>0.49767711962833916</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>0.64401858304297332</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>0.74332171893147503</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>0.66027874564459921</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>0.29965156794425102</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>0.30255516840882746</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>0.23417537746806052</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>13.886178861788677</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:P43">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="5" max="27" width="4.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10.1</v>
+      </c>
+      <c r="O1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>217881</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1.5</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>SUM(E2:AA2)</f>
+        <v>39.5</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>370585</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB43" si="0">SUM(E3:AA3)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>378613</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>367970</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>236403</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>342980</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>353885</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0.5</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>382027</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>335954</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>338982</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>374658</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>0.5</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>367880</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>365868</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>380349</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>71512</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>375616</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>208437</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>332765</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>373698</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>2.5</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>367907</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>335935</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>365857</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>375390</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>335914</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>2.5</v>
+      </c>
+      <c r="O25">
+        <v>2.5</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>368148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>372310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>340516</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>367743</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>367572</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>346612</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>2.5</v>
+      </c>
+      <c r="O31">
+        <v>2.5</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>336130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1.5</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>376876</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0.5</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0.5</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>298780</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1.5</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f>SUM(E34:AA34)</f>
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>374852</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>373643</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>14291</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>0.5</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>0.5</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>338585</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0.5</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>336196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>379427</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>372019</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0.5</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1.5</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>372124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <v>336824</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <f>SUM(E44:AA44)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(E2:E43)</f>
+        <v>2.7804878048780486</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:AB45" si="1">AVERAGE(F2:F43)</f>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1.8048780487804879</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1.8048780487804879</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>7.0975609756097562</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>3.2926829268292681</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>4.4390243902439028</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>3.1463414634146343</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>2.6951219512195124</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>2.7682926829268291</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0.37804878048780488</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>0.98780487804878048</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="1"/>
+        <v>1.8292682926829269</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="1"/>
+        <v>0.40243902439024393</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="1"/>
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="1"/>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="1"/>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="1"/>
+        <v>40.547619047619051</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46">
+        <f>VAR(E2:E43)</f>
+        <v>0.27560975609756044</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:AB46" si="2">VAR(F2:F43)</f>
+        <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>4.2555168408827031</v>
+        <v>0.1637195121951219</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>0.49767711962833916</v>
+        <v>0.16097560975609754</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>0.64401858304297332</v>
+        <v>0.3109756097560975</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>0.74332171893147503</v>
+        <v>1.3402439024390218</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>0.66027874564459921</v>
+        <v>0.31219512195121979</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>0.29965156794425102</v>
+        <v>0.50243902439024457</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.87804878048780499</v>
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>0.30255516840882746</v>
+        <v>0.53597560975609748</v>
       </c>
       <c r="O46">
         <f t="shared" si="2"/>
-        <v>0.23417537746806052</v>
+        <v>0.36371951219512227</v>
       </c>
       <c r="P46">
         <f t="shared" si="2"/>
-        <v>13.886178861788677</v>
+        <v>2.4390243902439046E-2</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>0.13475609756097562</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>6.0975609756097476E-3</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>0.12012195121951237</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>0.24024390243902438</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>9.7256097560975613E-2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="2"/>
+        <v>0.11097560975609752</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="2"/>
+        <v>0.18902439024390244</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="2"/>
+        <v>53.119628339140569</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AA43">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>